--- a/Testdata/Non_Oncology/DataFiles/ManageExcludedPublications/ExcludedPubPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ManageExcludedPublications/ExcludedPubPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ManageExcludedPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05627055-49B3-49CB-8B31-45BE97767FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326E090-8BCB-401D-AA74-BBB78B24D3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
   <si>
-    <t>StandardExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
+    <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testdata/Non_Oncology/DataFiles/ManageExcludedPublications/ExcludedPubPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ManageExcludedPublications/ExcludedPubPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ManageExcludedPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326E090-8BCB-401D-AA74-BBB78B24D3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93555427-1F44-4C1A-AE6C-B046534604E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Study_Types</t>
   </si>
@@ -52,12 +52,6 @@
     <t>\Testdata\Templates\ExcludedStudies\Override\Excluded studies - Overridedata - Copy (1).xlsx</t>
   </si>
   <si>
-    <t>population_name</t>
-  </si>
-  <si>
-    <t>pop_radio_button</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -92,6 +86,39 @@
   </si>
   <si>
     <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Population_Radio_button</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ExcludedStudies\1stUpload\Excluded studies - Copy (1) - RWE.xlsx</t>
+  </si>
+  <si>
+    <t>Excluded studies - Copy (1) - RWE.xlsx</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>slrtype</t>
+  </si>
+  <si>
+    <t>slrtype_Radio_button</t>
+  </si>
+  <si>
+    <t>Excluded studies - Overridedata - Copy (2).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ExcludedStudies\Override\Excluded studies - Overridedata - Copy (2).xlsx</t>
+  </si>
+  <si>
+    <t>Clinical-Interventional</t>
+  </si>
+  <si>
+    <t>Clinical-RWE</t>
   </si>
 </sst>
 </file>
@@ -418,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,77 +457,111 @@
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="79.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
